--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_TESTER_TuanHD.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_TESTER_TuanHD.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
-    <sheet name="Tester Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="TESTER" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -265,11 +265,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
     <col min="2" max="2" width="70.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1003,8 +1003,8 @@
         <v>27</v>
       </c>
       <c r="E27" s="7" t="str">
-        <f>IF(E26="","",IF(E26&gt;=80,"Đề xuất Tester4",IF(E26&gt;=70,"Đề xuất Tester3",IF(E26&gt;=60,"Đề xuất Tester2","Đề xuất Tester1"))))</f>
-        <v>Đề xuất Tester1</v>
+        <f>IF(E26="","",IF(E26&gt;=80,"Tester 4",IF(E26&gt;=70,"Tester 3",IF(E26&gt;=60,"Tester 2","Tester 1 "))))</f>
+        <v xml:space="preserve">Tester 1 </v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,24 +1014,24 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -1089,14 +1089,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">

--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_TESTER_TuanHD.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_TESTER_TuanHD.xlsx
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
